--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/17/word_level_predictions_17.xlsx
@@ -4477,133 +4477,133 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Taking</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Home Point Recorded Taking off .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C79" s="2" t="inlineStr">
-        <is>
-          <t>Taking</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Home Point Recorded Taking off .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>off</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem1/17/word_level_predictions_17.xlsx
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,109 +4501,109 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Taking</t>
         </is>
       </c>
-      <c r="D79" t="n">
+      <c r="D79" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G181" s="2" t="b">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L181" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10977,289 +10977,289 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -12514,416 +12514,416 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
